--- a/test2.xlsx
+++ b/test2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
   <si>
     <t>Артикул</t>
   </si>
@@ -30,31 +30,360 @@
     <t>Кросс-номера</t>
   </si>
   <si>
-    <t>Бак топливный D-128398 / 12-927 Дизель</t>
-  </si>
-  <si>
-    <t>ДИЗЕЛЬ</t>
-  </si>
-  <si>
-    <t>12-927</t>
-  </si>
-  <si>
-    <t>D-128398</t>
-  </si>
-  <si>
-    <t>УТ-00089233</t>
+    <t>Болт ГБЦ 1003046-36D FAW CA6DL1/2</t>
+  </si>
+  <si>
+    <t>Главный цилиндр сцепления DZ9114230020/DZ9114230022 SHACMAN</t>
+  </si>
+  <si>
+    <t>Главный цилиндр сцепления DZ93189230090 SHACMAN X3000</t>
+  </si>
+  <si>
+    <t>Коленвал (с шестерней) 1005015-81D FAW J6</t>
+  </si>
+  <si>
+    <t>Колпачок маслосъемный 1001245916 WEICHAI/FAW</t>
+  </si>
+  <si>
+    <t>Маховик MMC 8DC91(107mm) ME062830/062698 430mm*143t*10H*17mm17"</t>
+  </si>
+  <si>
+    <t>Маховик NIS RF8 12310-97619/13450-97773 430mm*140t*10H*16.5mm17"</t>
+  </si>
+  <si>
+    <t>Насос подъема кабины 5002075AA01-C00/G FAW J6</t>
+  </si>
+  <si>
+    <t>Патрубок YG9625530021 HOWO T5G</t>
+  </si>
+  <si>
+    <t>Пневмоподушка WG9925528010 Sitrak C7H</t>
+  </si>
+  <si>
+    <t>Подушка двигателя передняя 1001025-76A FAW</t>
+  </si>
+  <si>
+    <t>Прокладка клапанной крышки 1003041-81D FAW CA6DM2</t>
+  </si>
+  <si>
+    <t>Регулятор света WG9918580039 HOWO T5G</t>
+  </si>
+  <si>
+    <t>Трос газа L=2800 DZ9100575005 SHACMAN</t>
+  </si>
+  <si>
+    <t>Тяга продольная 3003040-80A/H FAW J6</t>
+  </si>
+  <si>
+    <t>Тяга реактивная L=610 DZ91259525274 SHAANXI</t>
+  </si>
+  <si>
+    <t>Тяга реактивная L=650 DZ91259525275/1358-2919010-10 SHAANXI</t>
+  </si>
+  <si>
+    <t>Тяга реактивная V-образная AZ9725521272/1502-2919012-10 HOWO</t>
+  </si>
+  <si>
+    <t>Фильтр масляный D-128473 / 5802302817/SO15010 IVECO/HONGYAN Дизель</t>
+  </si>
+  <si>
+    <t>Тяга реактивная смещенная нижняя L=630 AZ9631521174/1358-2919010 HOWO/SHACMAN</t>
+  </si>
+  <si>
+    <t>Фильтр системы охлаждения 1307020-29D/WF2071 FAW</t>
+  </si>
+  <si>
+    <t>Форсунка топливная 1112010-36D (распыл 193) FAW E-2</t>
+  </si>
+  <si>
+    <t>Цилиндр сцепления главный WG9719230013 HOWO</t>
+  </si>
+  <si>
+    <t>Главный тормозной кран WG9000360550 Sitrak C7H</t>
+  </si>
+  <si>
+    <t>Головка блока цилиндров L6300000-PJGG FAW CA6DL2</t>
+  </si>
+  <si>
+    <t>Кольцо уплотнительное маслянного насоса MQ6-56936-1150 Sitrak C7H</t>
+  </si>
+  <si>
+    <t>Корзина сцепления WG9921161501/1 Sitrak C7H</t>
+  </si>
+  <si>
+    <t>Корпус подножки R DZ13241240426 SHACMAN F3000</t>
+  </si>
+  <si>
+    <t>Корпус термостата 200V06404-0083 HOWO T5G</t>
+  </si>
+  <si>
+    <t>Насос ГУР 3407020A604-0655 FAW J5 CA3312</t>
+  </si>
+  <si>
+    <t>Отопитель в сборе DZ14251841027 SHACMAN Х3000</t>
+  </si>
+  <si>
+    <t>Патрубок воздушного фильтра 1109356-14B/B FAW J6 E-5</t>
+  </si>
+  <si>
+    <t>Прокладка (кольцо) масл насоса PTO MQ6-56936-1544 Sitrak C7H</t>
+  </si>
+  <si>
+    <t>Прокладка блока нагрева впускного воздуха 202V08901-0199 MC11 Sitrak C7H</t>
+  </si>
+  <si>
+    <t>Турбокомпрессор 202V09100-7915 HOWO Sitrak</t>
+  </si>
+  <si>
+    <t>Уплотнение WG9925551062 HOWO T5G</t>
+  </si>
+  <si>
+    <t>Шатун 61500030009 HOWO E-2 WD615 WP10</t>
+  </si>
+  <si>
+    <t>Дизель</t>
+  </si>
+  <si>
+    <t>1003046-36D; D-128454; D128454; 100304636D;</t>
+  </si>
+  <si>
+    <t>DZ9114230020; D-128455; D128455;</t>
+  </si>
+  <si>
+    <t>D-126914; D126914; DZ93189230090;</t>
+  </si>
+  <si>
+    <t>D-128457; D128457; 1005015-81D; 100501581D;</t>
+  </si>
+  <si>
+    <t>1001245916; D-128458; D128458;</t>
+  </si>
+  <si>
+    <t>ME062830; ME062698; FW-6071; FW-607; FW607; D-128459; D128459;</t>
+  </si>
+  <si>
+    <t>12310-97619; 1231097619; 13450-97773; 1345097773; FW-101; D-128460; D128460;</t>
+  </si>
+  <si>
+    <t>5002075AA01C00G; 5002075AA01-C00/G; D-128461; D128461;</t>
+  </si>
+  <si>
+    <t>YG9625530021; D-128462; D128462;</t>
+  </si>
+  <si>
+    <t>WG9925528010; D-128463; D128463;</t>
+  </si>
+  <si>
+    <t>1001025-76A; D-128464; D128464; 100102576A;</t>
+  </si>
+  <si>
+    <t>1003041-81D; D-128465; D128465; 100304181D;</t>
+  </si>
+  <si>
+    <t>WG9918580039; D-128466; D128466;</t>
+  </si>
+  <si>
+    <t>DZ9100575005; D-128467; D128467;</t>
+  </si>
+  <si>
+    <t>3003040-80AH; 3003040-80A/H; 300304080AH; D-128468; D128468;</t>
+  </si>
+  <si>
+    <t>DZ91259525274; D-128469; D128469;</t>
+  </si>
+  <si>
+    <t>DZ91259525275; D-128471; D128471;</t>
+  </si>
+  <si>
+    <t>AZ9725521272; D-128472; D128472;</t>
+  </si>
+  <si>
+    <t>D-128473; D128473; 5802302817; SO15010;</t>
+  </si>
+  <si>
+    <t>AZ9631521174; D-128474; D128474;</t>
+  </si>
+  <si>
+    <t>1307020-29D; D-128475; D128475; 130702029D;</t>
+  </si>
+  <si>
+    <t>D-128476; D128476; 1112010-36D; 111201036D;</t>
+  </si>
+  <si>
+    <t>WG9719230013; D-128477; D128477;</t>
+  </si>
+  <si>
+    <t>D-128478; D128478; WG9000360550;</t>
+  </si>
+  <si>
+    <t>D-128479; D128479; L6300000PJGG; L6300000-PJGG;</t>
+  </si>
+  <si>
+    <t>D-128480; D128480; MQ6-56936-1150; MQ6-569361150;</t>
+  </si>
+  <si>
+    <t>D-128481; D-128481; WG9921161501/1; WG99211615011;</t>
+  </si>
+  <si>
+    <t>D-128482; D128482; DZ13241240426;</t>
+  </si>
+  <si>
+    <t>D-128483; D128483; 200V06404-0083; 200V064040083;</t>
+  </si>
+  <si>
+    <t>D-128484; D128484; 3407020A604-0655; 3407020A6040655;</t>
+  </si>
+  <si>
+    <t>D-128485; D128485; DZ14251841027;</t>
+  </si>
+  <si>
+    <t>D-128486; D128486; 1109356-14B/B; 110935614BB;</t>
+  </si>
+  <si>
+    <t>D-128487; D128487; MQ6-56936-1544; MQ6-569361544;</t>
+  </si>
+  <si>
+    <t>D-128488; D128488; 202V08901-0199; 202V089010199;</t>
+  </si>
+  <si>
+    <t>D-128489; D128489; 202V09100-7915; 202V091007915;</t>
+  </si>
+  <si>
+    <t>D-128490; D128490; WG9925551062;</t>
+  </si>
+  <si>
+    <t>D-128491; D-128491; 61500030009;</t>
+  </si>
+  <si>
+    <t>D-128454</t>
+  </si>
+  <si>
+    <t>D-128455</t>
+  </si>
+  <si>
+    <t>D-128456</t>
+  </si>
+  <si>
+    <t>D-128457</t>
+  </si>
+  <si>
+    <t>D-128458</t>
+  </si>
+  <si>
+    <t>D-128459</t>
+  </si>
+  <si>
+    <t>D-128460</t>
+  </si>
+  <si>
+    <t>D-128461</t>
+  </si>
+  <si>
+    <t>D-128462</t>
+  </si>
+  <si>
+    <t>D-128463</t>
+  </si>
+  <si>
+    <t>D-128464</t>
+  </si>
+  <si>
+    <t>D-128465</t>
+  </si>
+  <si>
+    <t>D-128466</t>
+  </si>
+  <si>
+    <t>D-128467</t>
+  </si>
+  <si>
+    <t>D-128468</t>
+  </si>
+  <si>
+    <t>D-128469</t>
+  </si>
+  <si>
+    <t>D-128471</t>
+  </si>
+  <si>
+    <t>D-128472</t>
+  </si>
+  <si>
+    <t>D-128473</t>
+  </si>
+  <si>
+    <t>D-128474</t>
+  </si>
+  <si>
+    <t>D-128475</t>
+  </si>
+  <si>
+    <t>D-128476</t>
+  </si>
+  <si>
+    <t>D-128477</t>
+  </si>
+  <si>
+    <t>D-128478</t>
+  </si>
+  <si>
+    <t>D-128479</t>
+  </si>
+  <si>
+    <t>D-128480</t>
+  </si>
+  <si>
+    <t>D-128481</t>
+  </si>
+  <si>
+    <t>D-128482</t>
+  </si>
+  <si>
+    <t>D-128483</t>
+  </si>
+  <si>
+    <t>D-128484</t>
+  </si>
+  <si>
+    <t>D-128485</t>
+  </si>
+  <si>
+    <t>D-128486</t>
+  </si>
+  <si>
+    <t>D-128487</t>
+  </si>
+  <si>
+    <t>D-128488</t>
+  </si>
+  <si>
+    <t>D-128489</t>
+  </si>
+  <si>
+    <t>D-128490</t>
+  </si>
+  <si>
+    <t>D-128491</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,8 +420,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -100,10 +430,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
     <cellStyle name="Обычный 2 2" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +728,7 @@
     <col min="7" max="7" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>1</v>
       </c>
@@ -408,10 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -422,13 +750,517 @@
         <v>2328</v>
       </c>
       <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
